--- a/election_votar_data/SATKANIA/NALUA/152381/152381_com_1350_male_without_photo_76_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/NALUA/152381/152381_com_1350_male_without_photo_76_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="38.5" customWidth="1" min="4" max="4"/>
     <col width="35.5" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="47.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3297,10 +3297,14 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৪/০৮/২০০৬</t>
-        </is>
-      </c>
-      <c r="G68" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>০৪/০৮/২০০৬</t>
+        </is>
+      </c>
       <c r="H68" s="5" t="inlineStr">
         <is>
           <t>আলী আহমদ মেহরারের বাড়, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -3335,10 +3339,14 @@
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৫/০২/২০০৬</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>১৫/০২/২০০৬</t>
+        </is>
+      </c>
       <c r="H69" s="5" t="inlineStr">
         <is>
           <t>আলী আহমদ মেহরারের বাড়ি, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -9001,10 +9009,14 @@
       </c>
       <c r="F204" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৪/১২/২০০৬</t>
-        </is>
-      </c>
-      <c r="G204" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G204" s="3" t="inlineStr">
+        <is>
+          <t>১৪/১২/২০০৬</t>
+        </is>
+      </c>
       <c r="H204" s="5" t="inlineStr">
         <is>
           <t>৩২৭, খান্তগীর পাড়া, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -10467,10 +10479,14 @@
       </c>
       <c r="F239" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৮/০৭/২০০৬</t>
-        </is>
-      </c>
-      <c r="G239" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G239" s="3" t="inlineStr">
+        <is>
+          <t>০৮/০৭/২০০৬</t>
+        </is>
+      </c>
       <c r="H239" s="5" t="inlineStr">
         <is>
           <t>জালাল আহমদের বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -10883,10 +10899,14 @@
       </c>
       <c r="F249" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্য তারিখ:২০/০৮/২০০৬</t>
-        </is>
-      </c>
-      <c r="G249" s="3" t="inlineStr"/>
+          <t>শ্রমিক</t>
+        </is>
+      </c>
+      <c r="G249" s="3" t="inlineStr">
+        <is>
+          <t>২০/০৮/২০০৬</t>
+        </is>
+      </c>
       <c r="H249" s="5" t="inlineStr">
         <is>
           <t>জিয়াউদ্দিন বাপের বাড়ি, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -12517,10 +12537,14 @@
       </c>
       <c r="F288" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৫/০৭/২০০৫</t>
-        </is>
-      </c>
-      <c r="G288" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G288" s="3" t="inlineStr">
+        <is>
+          <t>০৫/০৭/২০০৫</t>
+        </is>
+      </c>
       <c r="H288" s="5" t="inlineStr">
         <is>
           <t>টুন মিয়ার বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -16335,10 +16359,14 @@
       </c>
       <c r="F379" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৩/১২/২০০৬</t>
-        </is>
-      </c>
-      <c r="G379" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G379" s="3" t="inlineStr">
+        <is>
+          <t>২৩/১২/২০০৬</t>
+        </is>
+      </c>
       <c r="H379" s="5" t="inlineStr">
         <is>
           <t>নতুন বাড়ি, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -17003,10 +17031,14 @@
       </c>
       <c r="F395" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:৩০/১২/২০০৬</t>
-        </is>
-      </c>
-      <c r="G395" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G395" s="3" t="inlineStr">
+        <is>
+          <t>৩০/১২/২০০৬</t>
+        </is>
+      </c>
       <c r="H395" s="5" t="inlineStr">
         <is>
           <t>নতুন বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -18343,10 +18375,14 @@
       </c>
       <c r="F427" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্য তারিখ:০২/০৫/১৯৯৯</t>
-        </is>
-      </c>
-      <c r="G427" s="3" t="inlineStr"/>
+          <t>কৃষক</t>
+        </is>
+      </c>
+      <c r="G427" s="3" t="inlineStr">
+        <is>
+          <t>০২/০৫/১৯৯৯</t>
+        </is>
+      </c>
       <c r="H427" s="5" t="inlineStr">
         <is>
           <t>নবমার বাপের বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -20481,10 +20517,14 @@
       </c>
       <c r="F478" s="3" t="inlineStr">
         <is>
-          <t>বাবুটী/জন্য তারিখ:০১/০৫/১৯৯৯</t>
-        </is>
-      </c>
-      <c r="G478" s="3" t="inlineStr"/>
+          <t>বাবুটী</t>
+        </is>
+      </c>
+      <c r="G478" s="3" t="inlineStr">
+        <is>
+          <t>০১/০৫/১৯৯৯</t>
+        </is>
+      </c>
       <c r="H478" s="5" t="inlineStr">
         <is>
           <t>৫৪, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -20519,10 +20559,14 @@
       </c>
       <c r="F479" s="3" t="inlineStr">
         <is>
-          <t>বেকার/জন্য তারিখ:০২/০৫/১৯৯৯</t>
-        </is>
-      </c>
-      <c r="G479" s="3" t="inlineStr"/>
+          <t>বেকার</t>
+        </is>
+      </c>
+      <c r="G479" s="3" t="inlineStr">
+        <is>
+          <t>০২/০৫/১৯৯৯</t>
+        </is>
+      </c>
       <c r="H479" s="5" t="inlineStr">
         <is>
           <t>২৮, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -26143,10 +26187,14 @@
       </c>
       <c r="F613" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৬/০৮/২০০৫</t>
-        </is>
-      </c>
-      <c r="G613" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G613" s="3" t="inlineStr">
+        <is>
+          <t>২৬/০৮/২০০৫</t>
+        </is>
+      </c>
       <c r="H613" s="5" t="inlineStr">
         <is>
           <t>বড় বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -35967,10 +36015,14 @@
       </c>
       <c r="F847" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৫/০৮/২০০৬</t>
-        </is>
-      </c>
-      <c r="G847" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G847" s="3" t="inlineStr">
+        <is>
+          <t>১৫/০৮/২০০৬</t>
+        </is>
+      </c>
       <c r="H847" s="5" t="inlineStr">
         <is>
           <t>মুস্তা বাড়ি, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -38063,10 +38115,14 @@
       </c>
       <c r="F897" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৭/০৯/২০০৬</t>
-        </is>
-      </c>
-      <c r="G897" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G897" s="3" t="inlineStr">
+        <is>
+          <t>১৭/০৯/২০০৬</t>
+        </is>
+      </c>
       <c r="H897" s="5" t="inlineStr">
         <is>
           <t>মুস্তা বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -48937,10 +48993,14 @@
       </c>
       <c r="F1156" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০১/০৬/২০০৬</t>
-        </is>
-      </c>
-      <c r="G1156" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G1156" s="3" t="inlineStr">
+        <is>
+          <t>০১/০৬/২০০৬</t>
+        </is>
+      </c>
       <c r="H1156" s="5" t="inlineStr">
         <is>
           <t>রুক্তম পাড়া, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -49227,10 +49287,14 @@
       </c>
       <c r="F1163" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৩/০৩/২০০৬</t>
-        </is>
-      </c>
-      <c r="G1163" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G1163" s="3" t="inlineStr">
+        <is>
+          <t>১৩/০৩/২০০৬</t>
+        </is>
+      </c>
       <c r="H1163" s="5" t="inlineStr">
         <is>
           <t>রুক্তম পাড়া, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -49265,10 +49329,14 @@
       </c>
       <c r="F1164" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্য তারিখ:১৯/০৯/২০০৫</t>
-        </is>
-      </c>
-      <c r="G1164" s="3" t="inlineStr"/>
+          <t>শ্রমিক</t>
+        </is>
+      </c>
+      <c r="G1164" s="3" t="inlineStr">
+        <is>
+          <t>১৯/০৯/২০০৫</t>
+        </is>
+      </c>
       <c r="H1164" s="5" t="inlineStr">
         <is>
           <t>রুক্তম পাড়া, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -51865,10 +51933,14 @@
       </c>
       <c r="F1226" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৬/১১/২০০৬</t>
-        </is>
-      </c>
-      <c r="G1226" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G1226" s="3" t="inlineStr">
+        <is>
+          <t>০৬/১১/২০০৬</t>
+        </is>
+      </c>
       <c r="H1226" s="5" t="inlineStr">
         <is>
           <t>শরফ উদ্দীন পন্ডিত বাড়ি, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>

--- a/election_votar_data/SATKANIA/NALUA/152381/152381_com_1350_male_without_photo_76_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/NALUA/152381/152381_com_1350_male_without_photo_76_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="38.5" customWidth="1" min="4" max="4"/>
     <col width="35.5" customWidth="1" min="5" max="5"/>
-    <col width="47.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3297,14 +3297,10 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G68" s="3" t="inlineStr">
-        <is>
-          <t>০৪/০৮/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৪/০৮/২০০৬</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr"/>
       <c r="H68" s="5" t="inlineStr">
         <is>
           <t>আলী আহমদ মেহরারের বাড়, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -3339,14 +3335,10 @@
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr">
-        <is>
-          <t>১৫/০২/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৫/০২/২০০৬</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr"/>
       <c r="H69" s="5" t="inlineStr">
         <is>
           <t>আলী আহমদ মেহরারের বাড়ি, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -9009,14 +9001,10 @@
       </c>
       <c r="F204" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G204" s="3" t="inlineStr">
-        <is>
-          <t>১৪/১২/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৪/১২/২০০৬</t>
+        </is>
+      </c>
+      <c r="G204" s="3" t="inlineStr"/>
       <c r="H204" s="5" t="inlineStr">
         <is>
           <t>৩২৭, খান্তগীর পাড়া, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -10479,14 +10467,10 @@
       </c>
       <c r="F239" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G239" s="3" t="inlineStr">
-        <is>
-          <t>০৮/০৭/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৮/০৭/২০০৬</t>
+        </is>
+      </c>
+      <c r="G239" s="3" t="inlineStr"/>
       <c r="H239" s="5" t="inlineStr">
         <is>
           <t>জালাল আহমদের বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -10899,14 +10883,10 @@
       </c>
       <c r="F249" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
-        </is>
-      </c>
-      <c r="G249" s="3" t="inlineStr">
-        <is>
-          <t>২০/০৮/২০০৬</t>
-        </is>
-      </c>
+          <t>শ্রমিক/জন্য তারিখ:২০/০৮/২০০৬</t>
+        </is>
+      </c>
+      <c r="G249" s="3" t="inlineStr"/>
       <c r="H249" s="5" t="inlineStr">
         <is>
           <t>জিয়াউদ্দিন বাপের বাড়ি, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -12537,14 +12517,10 @@
       </c>
       <c r="F288" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G288" s="3" t="inlineStr">
-        <is>
-          <t>০৫/০৭/২০০৫</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৫/০৭/২০০৫</t>
+        </is>
+      </c>
+      <c r="G288" s="3" t="inlineStr"/>
       <c r="H288" s="5" t="inlineStr">
         <is>
           <t>টুন মিয়ার বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -16359,14 +16335,10 @@
       </c>
       <c r="F379" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G379" s="3" t="inlineStr">
-        <is>
-          <t>২৩/১২/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৩/১২/২০০৬</t>
+        </is>
+      </c>
+      <c r="G379" s="3" t="inlineStr"/>
       <c r="H379" s="5" t="inlineStr">
         <is>
           <t>নতুন বাড়ি, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -17031,14 +17003,10 @@
       </c>
       <c r="F395" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G395" s="3" t="inlineStr">
-        <is>
-          <t>৩০/১২/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:৩০/১২/২০০৬</t>
+        </is>
+      </c>
+      <c r="G395" s="3" t="inlineStr"/>
       <c r="H395" s="5" t="inlineStr">
         <is>
           <t>নতুন বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -18375,14 +18343,10 @@
       </c>
       <c r="F427" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
-        </is>
-      </c>
-      <c r="G427" s="3" t="inlineStr">
-        <is>
-          <t>০২/০৫/১৯৯৯</t>
-        </is>
-      </c>
+          <t>কৃষক/জন্য তারিখ:০২/০৫/১৯৯৯</t>
+        </is>
+      </c>
+      <c r="G427" s="3" t="inlineStr"/>
       <c r="H427" s="5" t="inlineStr">
         <is>
           <t>নবমার বাপের বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -20517,14 +20481,10 @@
       </c>
       <c r="F478" s="3" t="inlineStr">
         <is>
-          <t>বাবুটী</t>
-        </is>
-      </c>
-      <c r="G478" s="3" t="inlineStr">
-        <is>
-          <t>০১/০৫/১৯৯৯</t>
-        </is>
-      </c>
+          <t>বাবুটী/জন্য তারিখ:০১/০৫/১৯৯৯</t>
+        </is>
+      </c>
+      <c r="G478" s="3" t="inlineStr"/>
       <c r="H478" s="5" t="inlineStr">
         <is>
           <t>৫৪, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -20559,14 +20519,10 @@
       </c>
       <c r="F479" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
-        </is>
-      </c>
-      <c r="G479" s="3" t="inlineStr">
-        <is>
-          <t>০২/০৫/১৯৯৯</t>
-        </is>
-      </c>
+          <t>বেকার/জন্য তারিখ:০২/০৫/১৯৯৯</t>
+        </is>
+      </c>
+      <c r="G479" s="3" t="inlineStr"/>
       <c r="H479" s="5" t="inlineStr">
         <is>
           <t>২৮, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -26187,14 +26143,10 @@
       </c>
       <c r="F613" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G613" s="3" t="inlineStr">
-        <is>
-          <t>২৬/০৮/২০০৫</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৬/০৮/২০০৫</t>
+        </is>
+      </c>
+      <c r="G613" s="3" t="inlineStr"/>
       <c r="H613" s="5" t="inlineStr">
         <is>
           <t>বড় বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -36015,14 +35967,10 @@
       </c>
       <c r="F847" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G847" s="3" t="inlineStr">
-        <is>
-          <t>১৫/০৮/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৫/০৮/২০০৬</t>
+        </is>
+      </c>
+      <c r="G847" s="3" t="inlineStr"/>
       <c r="H847" s="5" t="inlineStr">
         <is>
           <t>মুস্তা বাড়ি, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -38115,14 +38063,10 @@
       </c>
       <c r="F897" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G897" s="3" t="inlineStr">
-        <is>
-          <t>১৭/০৯/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৭/০৯/২০০৬</t>
+        </is>
+      </c>
+      <c r="G897" s="3" t="inlineStr"/>
       <c r="H897" s="5" t="inlineStr">
         <is>
           <t>মুস্তা বাড়ী, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -48993,14 +48937,10 @@
       </c>
       <c r="F1156" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G1156" s="3" t="inlineStr">
-        <is>
-          <t>০১/০৬/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০১/০৬/২০০৬</t>
+        </is>
+      </c>
+      <c r="G1156" s="3" t="inlineStr"/>
       <c r="H1156" s="5" t="inlineStr">
         <is>
           <t>রুক্তম পাড়া, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -49287,14 +49227,10 @@
       </c>
       <c r="F1163" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G1163" s="3" t="inlineStr">
-        <is>
-          <t>১৩/০৩/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৩/০৩/২০০৬</t>
+        </is>
+      </c>
+      <c r="G1163" s="3" t="inlineStr"/>
       <c r="H1163" s="5" t="inlineStr">
         <is>
           <t>রুক্তম পাড়া, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -49329,14 +49265,10 @@
       </c>
       <c r="F1164" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
-        </is>
-      </c>
-      <c r="G1164" s="3" t="inlineStr">
-        <is>
-          <t>১৯/০৯/২০০৫</t>
-        </is>
-      </c>
+          <t>শ্রমিক/জন্য তারিখ:১৯/০৯/২০০৫</t>
+        </is>
+      </c>
+      <c r="G1164" s="3" t="inlineStr"/>
       <c r="H1164" s="5" t="inlineStr">
         <is>
           <t>রুক্তম পাড়া, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -51933,14 +51865,10 @@
       </c>
       <c r="F1226" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G1226" s="3" t="inlineStr">
-        <is>
-          <t>০৬/১১/২০০৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৬/১১/২০০৬</t>
+        </is>
+      </c>
+      <c r="G1226" s="3" t="inlineStr"/>
       <c r="H1226" s="5" t="inlineStr">
         <is>
           <t>শরফ উদ্দীন পন্ডিত বাড়ি, পূর্ব নলুয়া, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
